--- a/mosip_master/xlsx/valid_document.xlsx
+++ b/mosip_master/xlsx/valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADADBF7C-6A4C-4F0F-8F4E-3344F9A707A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56F5AFF-C7EB-4C13-800C-8AE1E7147559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{C670B476-FEF6-4495-90B9-FE5B1AE60EF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C670B476-FEF6-4495-90B9-FE5B1AE60EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="valid_document" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,13 +1187,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BEC787-69CC-4CB7-B11A-CF54E46407D0}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1321,7 +1333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1353,7 +1365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1417,7 +1429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2153,7 +2165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2185,7 +2197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2409,7 +2421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -2441,7 +2453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2601,7 +2613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2633,7 +2645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2665,7 +2677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2697,7 +2709,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2761,7 +2773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2889,7 +2901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2921,7 +2933,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -3081,7 +3093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3337,7 +3349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -3369,7 +3381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3561,7 +3573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3625,7 +3637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3689,7 +3701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -3721,7 +3733,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -3881,7 +3893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -4009,7 +4021,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -4137,7 +4149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>61</v>
       </c>
@@ -4169,7 +4181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -4201,7 +4213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -4233,7 +4245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
